--- a/election_votar_data/SATKANIA/CHARATI/152335/152335_com_464_female_without_photo_26_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/CHARATI/152335/152335_com_464_female_without_photo_26_2025-11-24.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৪</t>
+          <t>১৫২৩৩৪০০০০২৪</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৩৪</t>
+          <t>১৫২৩৩৪০০০০৩৪</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৩৫</t>
+          <t>১৫২৩৩৪০০০০৩৫</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৩৬</t>
+          <t>১৫২৩৩৪০০০০৩৬</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৪৩</t>
+          <t>১৫২৩৩৪০০০০৪৩</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৯</t>
+          <t>১৫২৩৩৪০০০০২৯</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৩০</t>
+          <t>১৫২৩৩৪০০০৩০</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৮২</t>
+          <t>১৫২৩৩৪০০০৪৮২</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭৮</t>
+          <t>১৫২৩৩৪০০০৪৭৮</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৩১</t>
+          <t>১৫২৩৩৪০০০০৩১</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৩</t>
+          <t>১৫২৩৩৪০০০০২৩</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৬</t>
+          <t>১৫২৩৩৪০০০০২৬</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৭</t>
+          <t>১৫২৩৩৪০০০০২৭</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০২৪৮</t>
+          <t>১৫২৩৩৪০০০২৪৮</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭১</t>
+          <t>১৫২৩৩৪০০০৪৭১</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৩৯</t>
+          <t>১৫২৩৩৪০০০৩৯</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৩৮৬</t>
+          <t>১৫২৩৩৪০০০৩৮৬</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭৯</t>
+          <t>১৫২৩৩৪০০০৪৭৯</t>
         </is>
       </c>
       <c r="D280" s="4" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৮৭</t>
+          <t>১৫২৩৩৪০০০৪৮৭</t>
         </is>
       </c>
       <c r="D286" s="4" t="inlineStr">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭৩</t>
+          <t>১৫২৩৩৪০০০৪৭৩</t>
         </is>
       </c>
       <c r="D298" s="4" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭২</t>
+          <t>১৫২৩৩৪০০০৪৭২</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="C300" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৩২</t>
+          <t>১৫২৩৩৪০০০৩২</t>
         </is>
       </c>
       <c r="D300" s="4" t="inlineStr">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৭৭</t>
+          <t>১৫২৩৩৪০০০৪৭৭</t>
         </is>
       </c>
       <c r="D303" s="4" t="inlineStr">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০৪৮৮</t>
+          <t>১৫২৩৩৪০০০৪৮৮</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৮</t>
+          <t>১৫২৩৩৪০০০০২৮</t>
         </is>
       </c>
       <c r="D394" s="4" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০২৫</t>
+          <t>১৫২৩৩৪০০০০২৫</t>
         </is>
       </c>
       <c r="D395" s="4" t="inlineStr">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৫০</t>
+          <t>১৫২৩৩৪০০০০৫০</t>
         </is>
       </c>
       <c r="D442" s="4" t="inlineStr">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৬৯</t>
+          <t>১৫২৩৩৪০০০০৬৯</t>
         </is>
       </c>
       <c r="D447" s="4" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="C449" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৫৮</t>
+          <t>১৫২৩৩৪০০০০৫৮</t>
         </is>
       </c>
       <c r="D449" s="4" t="inlineStr">
